--- a/model_outputs/analysis_water_failure/water_deficit_pipe_34.xlsx
+++ b/model_outputs/analysis_water_failure/water_deficit_pipe_34.xlsx
@@ -6644,6 +6644,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Water demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6663,7 +6716,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6705,6 +6758,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Total system deficit (GPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6724,7 +6830,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6739,6 +6845,7 @@
         <c:crossAx val="483654280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7714,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
